--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H2">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I2">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J2">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N2">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O2">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P2">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q2">
-        <v>0.4528719520880001</v>
+        <v>5.387434356394667</v>
       </c>
       <c r="R2">
-        <v>4.075847568792</v>
+        <v>48.48690920755201</v>
       </c>
       <c r="S2">
-        <v>7.04128739400215E-05</v>
+        <v>0.0009084546166049339</v>
       </c>
       <c r="T2">
-        <v>7.041287394002148E-05</v>
+        <v>0.0009084546166049338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H3">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I3">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J3">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N3">
         <v>18.956886</v>
       </c>
       <c r="O3">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P3">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q3">
-        <v>9.188958712856</v>
+        <v>24.970111342592</v>
       </c>
       <c r="R3">
-        <v>82.70062841570399</v>
+        <v>224.731002083328</v>
       </c>
       <c r="S3">
-        <v>0.001428706256824369</v>
+        <v>0.004210578064750187</v>
       </c>
       <c r="T3">
-        <v>0.001428706256824369</v>
+        <v>0.004210578064750187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H4">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I4">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J4">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N4">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O4">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P4">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q4">
-        <v>2.129906507418667</v>
+        <v>10.40089304337067</v>
       </c>
       <c r="R4">
-        <v>19.169158566768</v>
+        <v>93.60803739033599</v>
       </c>
       <c r="S4">
-        <v>0.0003311594761376611</v>
+        <v>0.001753847690199501</v>
       </c>
       <c r="T4">
-        <v>0.0003311594761376611</v>
+        <v>0.001753847690199501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H5">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I5">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J5">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N5">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O5">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P5">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q5">
-        <v>57.08112571368932</v>
+        <v>83.00742177109332</v>
       </c>
       <c r="R5">
-        <v>513.7301314232039</v>
+        <v>747.0667959398399</v>
       </c>
       <c r="S5">
-        <v>0.008875016637046059</v>
+        <v>0.01399710335791206</v>
       </c>
       <c r="T5">
-        <v>0.008875016637046059</v>
+        <v>0.01399710335791207</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H6">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I6">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J6">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N6">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O6">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P6">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q6">
-        <v>3.414125620873333</v>
+        <v>10.65866090666667</v>
       </c>
       <c r="R6">
-        <v>30.72713058786</v>
+        <v>95.92794816</v>
       </c>
       <c r="S6">
-        <v>0.0005308308360665235</v>
+        <v>0.001797313724295246</v>
       </c>
       <c r="T6">
-        <v>0.0005308308360665235</v>
+        <v>0.001797313724295246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H7">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I7">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J7">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N7">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O7">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P7">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q7">
-        <v>1.241725801177333</v>
+        <v>9.45258160128</v>
       </c>
       <c r="R7">
-        <v>11.175532210596</v>
+        <v>85.07323441152</v>
       </c>
       <c r="S7">
-        <v>0.0001930644675680469</v>
+        <v>0.001593938937617859</v>
       </c>
       <c r="T7">
-        <v>0.0001930644675680469</v>
+        <v>0.00159393893761786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I8">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J8">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N8">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O8">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P8">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q8">
-        <v>7.0998432341</v>
+        <v>31.08144119821667</v>
       </c>
       <c r="R8">
-        <v>63.8985891069</v>
+        <v>279.73297078395</v>
       </c>
       <c r="S8">
-        <v>0.001103889000702467</v>
+        <v>0.005241099358127609</v>
       </c>
       <c r="T8">
-        <v>0.001103889000702467</v>
+        <v>0.005241099358127609</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I9">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J9">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N9">
         <v>18.956886</v>
       </c>
       <c r="O9">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P9">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q9">
-        <v>144.0587478316999</v>
+        <v>144.0587478317</v>
       </c>
       <c r="R9">
         <v>1296.5287304853</v>
       </c>
       <c r="S9">
-        <v>0.02239836316703442</v>
+        <v>0.02429186619688376</v>
       </c>
       <c r="T9">
-        <v>0.02239836316703441</v>
+        <v>0.02429186619688377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I10">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J10">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N10">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O10">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P10">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q10">
-        <v>33.39134215806666</v>
+        <v>60.00532426956665</v>
       </c>
       <c r="R10">
-        <v>300.5220794226</v>
+        <v>540.0479184260998</v>
       </c>
       <c r="S10">
-        <v>0.00519171115637385</v>
+        <v>0.01011838107852956</v>
       </c>
       <c r="T10">
-        <v>0.00519171115637385</v>
+        <v>0.01011838107852957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I11">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J11">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N11">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O11">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P11">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q11">
-        <v>894.8821898212831</v>
+        <v>478.8903452218332</v>
       </c>
       <c r="R11">
-        <v>8053.939708391548</v>
+        <v>4310.013106996499</v>
       </c>
       <c r="S11">
-        <v>0.1391369603097264</v>
+        <v>0.08075275097281101</v>
       </c>
       <c r="T11">
-        <v>0.1391369603097264</v>
+        <v>0.08075275097281102</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I12">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J12">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N12">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O12">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P12">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q12">
-        <v>53.52452625508332</v>
+        <v>61.49245082291666</v>
       </c>
       <c r="R12">
-        <v>481.72073629575</v>
+        <v>553.4320574062499</v>
       </c>
       <c r="S12">
-        <v>0.008322033860834493</v>
+        <v>0.01036914737905312</v>
       </c>
       <c r="T12">
-        <v>0.008322033860834493</v>
+        <v>0.01036914737905312</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I13">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J13">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N13">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O13">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P13">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q13">
-        <v>19.46700052288333</v>
+        <v>54.534281028</v>
       </c>
       <c r="R13">
-        <v>175.20300470595</v>
+        <v>490.8085292519999</v>
       </c>
       <c r="S13">
-        <v>0.003026743978045615</v>
+        <v>0.009195827936968399</v>
       </c>
       <c r="T13">
-        <v>0.003026743978045615</v>
+        <v>0.009195827936968401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H14">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I14">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J14">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N14">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O14">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P14">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q14">
-        <v>3.672913294847334</v>
+        <v>31.98636635726623</v>
       </c>
       <c r="R14">
-        <v>33.056219653626</v>
+        <v>287.877297215396</v>
       </c>
       <c r="S14">
-        <v>0.0005710673395213055</v>
+        <v>0.005393692110825328</v>
       </c>
       <c r="T14">
-        <v>0.0005710673395213054</v>
+        <v>0.005393692110825328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H15">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I15">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J15">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N15">
         <v>18.956886</v>
       </c>
       <c r="O15">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P15">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q15">
-        <v>74.52492579115132</v>
+        <v>148.2529672844827</v>
       </c>
       <c r="R15">
-        <v>670.7243321203619</v>
+        <v>1334.276705560344</v>
       </c>
       <c r="S15">
-        <v>0.0115871918782511</v>
+        <v>0.02499911528297463</v>
       </c>
       <c r="T15">
-        <v>0.0115871918782511</v>
+        <v>0.02499911528297463</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H16">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I16">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J16">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N16">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O16">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P16">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q16">
-        <v>17.27411444186711</v>
+        <v>61.75235804648089</v>
       </c>
       <c r="R16">
-        <v>155.467029976804</v>
+        <v>555.771222418328</v>
       </c>
       <c r="S16">
-        <v>0.002685792390128731</v>
+        <v>0.01041297416217775</v>
       </c>
       <c r="T16">
-        <v>0.00268579239012873</v>
+        <v>0.01041297416217775</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H17">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I17">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J17">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N17">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O17">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P17">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q17">
-        <v>462.9432769064985</v>
+        <v>492.8330681172578</v>
       </c>
       <c r="R17">
-        <v>4166.489492158486</v>
+        <v>4435.49761305532</v>
       </c>
       <c r="S17">
-        <v>0.07197877114691263</v>
+        <v>0.08310383873453143</v>
       </c>
       <c r="T17">
-        <v>0.07197877114691263</v>
+        <v>0.08310383873453146</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H18">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I18">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J18">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N18">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O18">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P18">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q18">
-        <v>27.68947673921722</v>
+        <v>63.28278176305556</v>
       </c>
       <c r="R18">
-        <v>249.205290652955</v>
+        <v>569.5450358675</v>
       </c>
       <c r="S18">
-        <v>0.004305180804672142</v>
+        <v>0.01067104143478102</v>
       </c>
       <c r="T18">
-        <v>0.004305180804672142</v>
+        <v>0.01067104143478102</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H19">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I19">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J19">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N19">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O19">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P19">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q19">
-        <v>10.07073010962922</v>
+        <v>56.12202731744</v>
       </c>
       <c r="R19">
-        <v>90.63657098666299</v>
+        <v>505.09824585696</v>
       </c>
       <c r="S19">
-        <v>0.001565804741105959</v>
+        <v>0.009463561212442477</v>
       </c>
       <c r="T19">
-        <v>0.001565804741105959</v>
+        <v>0.009463561212442479</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H20">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I20">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J20">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N20">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O20">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P20">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q20">
-        <v>2.497609114512</v>
+        <v>18.06155095162578</v>
       </c>
       <c r="R20">
-        <v>22.478482030608</v>
+        <v>162.553958564632</v>
       </c>
       <c r="S20">
-        <v>0.0003883301558437187</v>
+        <v>0.003045623994578036</v>
       </c>
       <c r="T20">
-        <v>0.0003883301558437187</v>
+        <v>0.003045623994578036</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H21">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I21">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J21">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N21">
         <v>18.956886</v>
       </c>
       <c r="O21">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P21">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q21">
-        <v>50.67751917134399</v>
+        <v>83.71311990960534</v>
       </c>
       <c r="R21">
-        <v>456.0976725420959</v>
+        <v>753.418079186448</v>
       </c>
       <c r="S21">
-        <v>0.00787937904423695</v>
+        <v>0.01411610150980598</v>
       </c>
       <c r="T21">
-        <v>0.007879379044236948</v>
+        <v>0.01411610150980598</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H22">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I22">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J22">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N22">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O22">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P22">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q22">
-        <v>11.746529855648</v>
+        <v>34.86933616597511</v>
       </c>
       <c r="R22">
-        <v>105.718768700832</v>
+        <v>313.824025493776</v>
       </c>
       <c r="S22">
-        <v>0.001826359354217021</v>
+        <v>0.005879832091193817</v>
       </c>
       <c r="T22">
-        <v>0.001826359354217021</v>
+        <v>0.005879832091193818</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H23">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I23">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J23">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N23">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O23">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P23">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q23">
-        <v>314.8049668163439</v>
+        <v>278.2851128203822</v>
       </c>
       <c r="R23">
-        <v>2833.244701347096</v>
+        <v>2504.56601538344</v>
       </c>
       <c r="S23">
-        <v>0.04894611455165723</v>
+        <v>0.04692574957763087</v>
       </c>
       <c r="T23">
-        <v>0.04894611455165723</v>
+        <v>0.04692574957763088</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H24">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I24">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J24">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N24">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O24">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P24">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q24">
-        <v>18.82905582796</v>
+        <v>35.73351140944445</v>
       </c>
       <c r="R24">
-        <v>169.46150245164</v>
+        <v>321.601602685</v>
       </c>
       <c r="S24">
-        <v>0.002927555853947319</v>
+        <v>0.006025553400735821</v>
       </c>
       <c r="T24">
-        <v>0.002927555853947319</v>
+        <v>0.006025553400735821</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H25">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I25">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J25">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N25">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O25">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P25">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q25">
-        <v>6.848173450455999</v>
+        <v>31.69009085248</v>
       </c>
       <c r="R25">
-        <v>61.633561054104</v>
+        <v>285.21081767232</v>
       </c>
       <c r="S25">
-        <v>0.00106475919222452</v>
+        <v>0.00534373273641726</v>
       </c>
       <c r="T25">
-        <v>0.00106475919222452</v>
+        <v>0.005343732736417262</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H26">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I26">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J26">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N26">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O26">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P26">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q26">
-        <v>22.20762933654867</v>
+        <v>113.3929043039557</v>
       </c>
       <c r="R26">
-        <v>199.868664028938</v>
+        <v>1020.536138735601</v>
       </c>
       <c r="S26">
-        <v>0.003452859020682457</v>
+        <v>0.01912084688009211</v>
       </c>
       <c r="T26">
-        <v>0.003452859020682457</v>
+        <v>0.01912084688009211</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H27">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I27">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J27">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N27">
         <v>18.956886</v>
       </c>
       <c r="O27">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P27">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q27">
-        <v>450.6019596557006</v>
+        <v>525.5624957302459</v>
       </c>
       <c r="R27">
-        <v>4055.417636901305</v>
+        <v>4730.062461572214</v>
       </c>
       <c r="S27">
-        <v>0.07005993379823668</v>
+        <v>0.08862282934247527</v>
       </c>
       <c r="T27">
-        <v>0.07005993379823668</v>
+        <v>0.0886228293424753</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H28">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I28">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J28">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N28">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O28">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P28">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q28">
-        <v>104.4449187461835</v>
+        <v>218.9144946411686</v>
       </c>
       <c r="R28">
-        <v>940.004268715652</v>
+        <v>1970.230451770518</v>
       </c>
       <c r="S28">
-        <v>0.01623917503268509</v>
+        <v>0.03691439563666338</v>
       </c>
       <c r="T28">
-        <v>0.0162391750326851</v>
+        <v>0.03691439563666338</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H29">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I29">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J29">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N29">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O29">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P29">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q29">
-        <v>2799.105743064936</v>
+        <v>1747.112263601963</v>
       </c>
       <c r="R29">
-        <v>25191.95168758443</v>
+        <v>15724.01037241767</v>
       </c>
       <c r="S29">
-        <v>0.4352070798876131</v>
+        <v>0.2946063184440271</v>
       </c>
       <c r="T29">
-        <v>0.4352070798876132</v>
+        <v>0.2946063184440271</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H30">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I30">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J30">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N30">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O30">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P30">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q30">
-        <v>167.4195894605461</v>
+        <v>224.3399058335416</v>
       </c>
       <c r="R30">
-        <v>1506.776305144915</v>
+        <v>2019.059152501875</v>
       </c>
       <c r="S30">
-        <v>0.02603052450791851</v>
+        <v>0.03782925408664915</v>
       </c>
       <c r="T30">
-        <v>0.02603052450791852</v>
+        <v>0.03782925408664916</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H31">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I31">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J31">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N31">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O31">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P31">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q31">
-        <v>60.8909123275021</v>
+        <v>198.95475471864</v>
       </c>
       <c r="R31">
-        <v>548.0182109475189</v>
+        <v>1790.59279246776</v>
       </c>
       <c r="S31">
-        <v>0.00946736514381482</v>
+        <v>0.03354869005598518</v>
       </c>
       <c r="T31">
-        <v>0.009467365143814821</v>
+        <v>0.03354869005598519</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H32">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I32">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J32">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N32">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O32">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P32">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q32">
-        <v>3.693282319994666</v>
+        <v>22.14965172495211</v>
       </c>
       <c r="R32">
-        <v>33.239540879952</v>
+        <v>199.346865524569</v>
       </c>
       <c r="S32">
-        <v>0.0005742343309708037</v>
+        <v>0.003734978847926052</v>
       </c>
       <c r="T32">
-        <v>0.0005742343309708036</v>
+        <v>0.003734978847926051</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H33">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I33">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J33">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N33">
         <v>18.956886</v>
       </c>
       <c r="O33">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P33">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q33">
-        <v>74.93822171340264</v>
+        <v>102.6609761129073</v>
       </c>
       <c r="R33">
-        <v>674.4439954206238</v>
+        <v>923.948785016166</v>
       </c>
       <c r="S33">
-        <v>0.0116514514411126</v>
+        <v>0.01731117848039119</v>
       </c>
       <c r="T33">
-        <v>0.01165145144111259</v>
+        <v>0.01731117848039119</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H34">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I34">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J34">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N34">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O34">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P34">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q34">
-        <v>17.36991220326755</v>
+        <v>42.76175695128244</v>
       </c>
       <c r="R34">
-        <v>156.329209829408</v>
+        <v>384.8558125615419</v>
       </c>
       <c r="S34">
-        <v>0.0027006870985913</v>
+        <v>0.007210689346111604</v>
       </c>
       <c r="T34">
-        <v>0.0027006870985913</v>
+        <v>0.007210689346111605</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H35">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I35">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J35">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N35">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O35">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P35">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q35">
-        <v>465.5106403295136</v>
+        <v>341.2729253273588</v>
       </c>
       <c r="R35">
-        <v>4189.595762965623</v>
+        <v>3071.45632794623</v>
       </c>
       <c r="S35">
-        <v>0.07237794675544726</v>
+        <v>0.05754705190382798</v>
       </c>
       <c r="T35">
-        <v>0.07237794675544726</v>
+        <v>0.05754705190382799</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H36">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I36">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J36">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N36">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O36">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P36">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q36">
-        <v>27.84303540035111</v>
+        <v>43.82153197965278</v>
       </c>
       <c r="R36">
-        <v>250.58731860316</v>
+        <v>394.393787816875</v>
       </c>
       <c r="S36">
-        <v>0.004329056221550946</v>
+        <v>0.007389393614859288</v>
       </c>
       <c r="T36">
-        <v>0.004329056221550946</v>
+        <v>0.007389393614859288</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H37">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I37">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J37">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N37">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O37">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P37">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q37">
-        <v>10.12657976857511</v>
+        <v>38.86291257016</v>
       </c>
       <c r="R37">
-        <v>91.13921791717598</v>
+        <v>349.76621313144</v>
       </c>
       <c r="S37">
-        <v>0.001574488288357713</v>
+        <v>0.006553247799143932</v>
       </c>
       <c r="T37">
-        <v>0.001574488288357713</v>
+        <v>0.006553247799143933</v>
       </c>
     </row>
   </sheetData>
